--- a/MER - Dicionário de dados .xlsx
+++ b/MER - Dicionário de dados .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\des\Desktop\gaby\Proj-SGT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C37C8-7058-4AE9-B6A5-0F3EFC03DF52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160A166-6A53-450D-81BA-45C2603BC273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{01A55523-7BA6-4067-B395-D171CC95BD99}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>MER - Dicionário de dados</t>
   </si>
   <si>
-    <t>Tarefas (ID: inteiro – auto incremento, tipo: texto(15), descricao: texto(100), data_vencimento: data, status: texto(20));</t>
+    <t>Usuarios (ID: inteiro – auto incremento, tipo: texto(15) , nome_completo: texto (100), email: texto(50), senha: texto(100));</t>
   </si>
   <si>
-    <t>Usuários (ID: inteiro – auto incremento, tipo: texto(15) , nome_completo: texto (100), email: texto(50), senha: texto(100));</t>
+    <t>Tarefas (ID: inteiro – auto incremento, tipo: texto(15), descricao: texto(100), data_vencimento: data, status: texto(20), ID_usuario: inteiro - Referencia [Usuario: ID]);</t>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,11 +66,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -80,283 +80,287 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -367,22 +371,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Saída" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,124 +708,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A3C3FA-BC52-4097-B0DA-FFD827A4F180}">
-  <dimension ref="C2:O8"/>
+  <dimension ref="C1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="3:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="16"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="23"/>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C2:N2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C2:R2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/MER - Dicionário de dados .xlsx
+++ b/MER - Dicionário de dados .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\des\Desktop\gaby\Proj-SGT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160A166-6A53-450D-81BA-45C2603BC273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29563D9C-FD0D-4FB6-8A64-54A0A2E991E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{01A55523-7BA6-4067-B395-D171CC95BD99}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>MER - Dicionário de dados</t>
   </si>
   <si>
-    <t>Usuarios (ID: inteiro – auto incremento, tipo: texto(15) , nome_completo: texto (100), email: texto(50), senha: texto(100));</t>
+    <t>Usuarios (ID_usuario: inteiro – auto incremento, tipo: texto(15) , nome_completo: texto (100), email: texto(50), senha: texto(100));</t>
   </si>
   <si>
-    <t>Tarefas (ID: inteiro – auto incremento, tipo: texto(15), descricao: texto(100), data_vencimento: data, status: texto(20), ID_usuario: inteiro - Referencia [Usuario: ID]);</t>
+    <t>Tarefas (ID_tarefas: inteiro – auto incremento, tipo: texto(15), descricao: texto(100), data_vencimento: data, status: texto(20), ID_usuario: inteiro - Referencia [Usuario: ID_usuario]);</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -287,65 +287,117 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -354,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -371,6 +423,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,19 +438,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
@@ -708,36 +763,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A3C3FA-BC52-4097-B0DA-FFD827A4F180}">
-  <dimension ref="C1:R20"/>
+  <dimension ref="C2:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="3:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
@@ -753,29 +809,33 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="5"/>
@@ -791,29 +851,33 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="19" t="s">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="22"/>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
@@ -827,11 +891,13 @@
       <c r="M7" s="9"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="26"/>
+      <c r="P7" s="18"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="5"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
       <c r="D8" s="8"/>
       <c r="E8" s="11"/>
@@ -846,23 +912,32 @@
       <c r="N8" s="8"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K16" s="27"/>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="27"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="28"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="C2:R2"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C6:T6"/>
+    <mergeCell ref="C4:T4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
